--- a/Section3_SimulatedData/LMESimulation_EventMarkerMappingKey.xlsx
+++ b/Section3_SimulatedData/LMESimulation_EventMarkerMappingKey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Projects\InProgress\LME_MixedEffectsERPTutorial\Data\LME_04_TutorialCode\SEREEGASimulationCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Projects\InProgress\LME_DifferenceWaves&amp;LatencyERP\Data\FinalScriptsForGitHub\DiffWave\SimData_DiffWave\Section3_SimulatedData_20251009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C793098-7DC1-4A0E-96D2-C0E96D05DECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109EEEB2-B27B-4FAE-B64F-F30F34460731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="16220" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>EmotionCode</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">Simulated emotion condition label (e.g., B). </t>
   </si>
   <si>
-    <t xml:space="preserve">This spreadsheet lists the 3-digit preceding codes (flags composed of an emotion condition ID and actor ID) associated with each simulated emotion condition. </t>
-  </si>
-  <si>
     <t>Emotion condition ID used in the unique preceding codes. For example, an emotion condition ID of 3 corresponds to emotion B.</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>This file is required for the following script:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-digit preceding code composed of the emotion condition and actor IDs. The first digit of the preceding code is the same as the EmotionCode column (e.g., 301 is a stimulus with emotion condition of 3). The last two digits of the preceding code is the same as the ActorCode column (e.g., 301 is a stimulus with actor ID of 01). </t>
   </si>
   <si>
     <r>
@@ -88,7 +88,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>LMESimulation_01_CreateBinDescriptorFile.m</t>
+      <t>DiffWaveSim_01_CreateBinDescriptorFile.m</t>
     </r>
     <r>
       <rPr>
@@ -103,7 +103,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">In addition, the preceding codes from this spreadsheet have been copied into the </t>
+      <t xml:space="preserve">In addition, the preceding codes from this spreadsheet have been manually copied into the </t>
     </r>
     <r>
       <rPr>
@@ -114,7 +114,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>simulateOneSubject</t>
+      <t>simulateOneSubject_forDiffWave.m</t>
     </r>
     <r>
       <rPr>
@@ -126,9 +126,6 @@
       </rPr>
       <t xml:space="preserve"> function and stored as the emotionPrecCodes variable.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">3-digit preceding code composed of the emotion condition and actor IDs. The first digit of the preceding code is the same as the EmotionCode column (e.g., 301 is a stimulus with emotion condition of 3). The last two digits of the preceding code is the same as the ActorCode column (e.g., 301 is a stimulus with actor ID of 01). </t>
   </si>
   <si>
     <r>
@@ -143,7 +140,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>LMESimulation_01_CreateBinDescriptorFile.m</t>
+      <t>DiffWaveSim_01_CreateBinDescriptorFile.m</t>
     </r>
     <r>
       <rPr>
@@ -157,7 +154,7 @@
     </r>
   </si>
   <si>
-    <t>Also, see the SimulationScripts README.md available on the LME_MixedEffectsERPTutorial GitHub for additional details about the simulation methods: https://github.com/basclab/LME_MixedEffectsERPTutorial/tree/main/SimulationScripts</t>
+    <t xml:space="preserve">This spreadsheet lists the 3-digit preceding codes (event markers composed of an emotion condition ID and actor ID) associated with each simulated emotion condition. </t>
   </si>
 </sst>
 </file>
@@ -240,15 +237,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -536,108 +531,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>21</v>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -652,166 +642,166 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" customWidth="1"/>
+    <col min="2" max="2" width="12.4609375" customWidth="1"/>
+    <col min="3" max="3" width="10.53515625" customWidth="1"/>
+    <col min="4" max="4" width="18.84375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="6">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>602</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="11">
-        <v>3</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10">
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>5</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>605</v>
       </c>
     </row>
